--- a/biology/Zoologie/Bubarida/Bubarida.xlsx
+++ b/biology/Zoologie/Bubarida/Bubarida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bubarida sont un ordre d'éponges marines. 
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'utilisation taxinomique de cet ordre résulte de la nouvelle classification au sein des Demospongiae mise en place par Christine Morrow (d) et Paco Cárdenas (d) et adoptée en 2015[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'utilisation taxinomique de cet ordre résulte de la nouvelle classification au sein des Demospongiae mise en place par Christine Morrow (d) et Paco Cárdenas (d) et adoptée en 2015.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (20 mai 2016)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (20 mai 2016) :
 famille Bubaridae Topsent, 1894
 famille Desmanthidae Topsent, 1893
 famille Dictyonellidae van Soest, Diaz &amp; Pomponi, 1990</t>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Christine Morrow et Paco Cárdenas, « Proposal for a revised classification of the Demospongiae (Porifera) », Frontiers in Zoology, BMC et Springer Science+Business Media, vol. 12, no 1,‎ 2015, p. 7 (ISSN 1742-9994, OCLC 56719374, PMID 25901176, PMCID 4404696, DOI 10.1186/S12983-015-0099-8, lire en ligne)</t>
         </is>
